--- a/data/outputs/OR_altmetric/38.xlsx
+++ b/data/outputs/OR_altmetric/38.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE20"/>
+  <dimension ref="A1:CF20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1021,6 +1026,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1252,6 +1260,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1489,6 +1500,9 @@
         <v>0</v>
       </c>
       <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1730,6 +1744,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1961,6 +1978,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2192,6 +2212,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2421,6 +2444,9 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2648,6 +2674,9 @@
         <v>0</v>
       </c>
       <c r="CE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2873,6 +2902,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3110,6 +3142,9 @@
         <v>0</v>
       </c>
       <c r="CE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3335,6 +3370,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3564,6 +3602,9 @@
         <v>0</v>
       </c>
       <c r="CE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3793,6 +3834,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4024,6 +4068,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4257,6 +4304,9 @@
         <v>0</v>
       </c>
       <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4482,6 +4532,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4719,6 +4772,9 @@
         <v>0</v>
       </c>
       <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4946,6 +5002,9 @@
         <v>0</v>
       </c>
       <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5167,6 +5226,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
